--- a/Study Materials/ParticipantData/User7.xlsx
+++ b/Study Materials/ParticipantData/User7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="-520" windowWidth="25920" windowHeight="18960" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6460" yWindow="12620" windowWidth="15480" windowHeight="11000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,293 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="133">
   <si>
+    <t>In my room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went to sleep right after </t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am running on 2 hours of sleep, and felt really stressed with all the other things that I needed to still do. </t>
+  </si>
+  <si>
+    <t>Comment on friends wall "we are meant to be roommates. I come home to ptfo and there you are already ptfoed lols. Love you!"</t>
+  </si>
+  <si>
+    <t>too tired</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>my roommate</t>
+  </si>
+  <si>
+    <t>in my bed</t>
+  </si>
+  <si>
+    <t>sleeping</t>
+  </si>
+  <si>
+    <t>Wanted to pos on my roommates wall that we are so similar and meant to be!</t>
+  </si>
+  <si>
+    <t>"Pahahahaha Mel Gibson" to my friend emily's wall</t>
+  </si>
+  <si>
+    <t>Unnecessary</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>My friend Emily and 2 other friends that would also understand the context.</t>
+  </si>
+  <si>
+    <t>didnt feel like it</t>
+  </si>
+  <si>
+    <t>Studying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was an inside joke between my friend Emily and I. </t>
+  </si>
+  <si>
+    <t>I am stuck looking like a retard trying to unzip my stuck jacket. Status update</t>
+  </si>
+  <si>
+    <t>it was unneccesary</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>at the library</t>
+  </si>
+  <si>
+    <t>just doing work</t>
+  </si>
+  <si>
+    <t>My jacket zipper got stuck and i tried so hard to unzip it</t>
+  </si>
+  <si>
+    <t>[Blank]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnecessary </t>
+  </si>
+  <si>
+    <t>My friends</t>
+  </si>
+  <si>
+    <t>at the restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eating </t>
+  </si>
+  <si>
+    <t>"Going to eat my #25 worth." There was a banquet tonight for all you can eat bbq for 25 dollars</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To show everyone a picture of me and my mentee at banquet </t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>Mentee!</t>
+  </si>
+  <si>
+    <t>Programming can smd. Status update</t>
+  </si>
+  <si>
+    <t>Did not feel like it was necessary.</t>
+  </si>
+  <si>
+    <t>My parents</t>
+  </si>
+  <si>
+    <t>Somebody come visit me at work! Boreddddd. Status update</t>
+  </si>
+  <si>
+    <t>Didn't want certain people to see it since im not allowed to have people over when Im working</t>
+  </si>
+  <si>
+    <t>Yes... my boss</t>
+  </si>
+  <si>
+    <t>friends!</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>I was working and I wanted someone to come keep me company due to the fact that I was really bored.</t>
+  </si>
+  <si>
+    <t>This week is going by too fast!!! :(</t>
+  </si>
+  <si>
+    <t>clogging up fb newsfeed</t>
+  </si>
+  <si>
+    <t>people who also feel the same way</t>
+  </si>
+  <si>
+    <t>in the lounge</t>
+  </si>
+  <si>
+    <t>"studying"</t>
+  </si>
+  <si>
+    <t>I have so many tests and quizzes and presentations this week. I feel like im not prepared for them.</t>
+  </si>
+  <si>
+    <t>Studying= me jamming by myself in the mw lounge :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">embarrassing. </t>
+  </si>
+  <si>
+    <t>friends in my class who would come join me</t>
+  </si>
+  <si>
+    <t>I was studying for a math test in the lounge and I was the only one in there. I was also listening to music and a song that I really liked was playing, so I was rocking out to it.</t>
+  </si>
+  <si>
+    <t>Sjksdjjdjsjsjjdjd math test!!!!</t>
+  </si>
+  <si>
+    <t>i decided to get off fb and study</t>
+  </si>
+  <si>
+    <t>people who would agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the library studying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">studying math </t>
+  </si>
+  <si>
+    <t>I was studying for a math test that I was not really understanding</t>
+  </si>
+  <si>
+    <t>Can't believe I have 3 tests AND finals NEXT week</t>
+  </si>
+  <si>
+    <t>Studying was more important</t>
+  </si>
+  <si>
+    <t>people who were in the same boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in the library</t>
+  </si>
+  <si>
+    <t>studying</t>
+  </si>
+  <si>
+    <t>I was really frustrated that I was studying for my math test, but there also a culmination of other tests and finals that I have yet studied for.</t>
+  </si>
+  <si>
+    <t>In my room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why not post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People not see</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People see</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>sms_date</t>
+  </si>
+  <si>
+    <t>sms_body</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>np1</t>
+  </si>
+  <si>
+    <t>np2</t>
+  </si>
+  <si>
+    <t>np3</t>
+  </si>
+  <si>
+    <t>nn1</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>long_description</t>
+  </si>
+  <si>
+    <t>post_date</t>
+  </si>
+  <si>
+    <t>Status update "need to ptfo already. This week neeeeeeeeds to end! "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">People dont need to know every aspect about my life. Even though people would probably "like" my status, I felt it was just unnecessary to post. </t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
     <t>Time:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -173,293 +460,6 @@
   </si>
   <si>
     <t>Working on programming homework, and it was super frustrating. I could not solve my problem</t>
-  </si>
-  <si>
-    <t>Somebody come visit me at work! Boreddddd. Status update</t>
-  </si>
-  <si>
-    <t>Didn't want certain people to see it since im not allowed to have people over when Im working</t>
-  </si>
-  <si>
-    <t>Yes... my boss</t>
-  </si>
-  <si>
-    <t>friends!</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>I was working and I wanted someone to come keep me company due to the fact that I was really bored.</t>
-  </si>
-  <si>
-    <t>This week is going by too fast!!! :(</t>
-  </si>
-  <si>
-    <t>clogging up fb newsfeed</t>
-  </si>
-  <si>
-    <t>people who also feel the same way</t>
-  </si>
-  <si>
-    <t>in the lounge</t>
-  </si>
-  <si>
-    <t>"studying"</t>
-  </si>
-  <si>
-    <t>I have so many tests and quizzes and presentations this week. I feel like im not prepared for them.</t>
-  </si>
-  <si>
-    <t>Studying= me jamming by myself in the mw lounge :)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">embarrassing. </t>
-  </si>
-  <si>
-    <t>friends in my class who would come join me</t>
-  </si>
-  <si>
-    <t>I was studying for a math test in the lounge and I was the only one in there. I was also listening to music and a song that I really liked was playing, so I was rocking out to it.</t>
-  </si>
-  <si>
-    <t>Sjksdjjdjsjsjjdjd math test!!!!</t>
-  </si>
-  <si>
-    <t>i decided to get off fb and study</t>
-  </si>
-  <si>
-    <t>people who would agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in the library studying </t>
-  </si>
-  <si>
-    <t xml:space="preserve">studying math </t>
-  </si>
-  <si>
-    <t>I was studying for a math test that I was not really understanding</t>
-  </si>
-  <si>
-    <t>Can't believe I have 3 tests AND finals NEXT week</t>
-  </si>
-  <si>
-    <t>Studying was more important</t>
-  </si>
-  <si>
-    <t>people who were in the same boat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> in the library</t>
-  </si>
-  <si>
-    <t>studying</t>
-  </si>
-  <si>
-    <t>I was really frustrated that I was studying for my math test, but there also a culmination of other tests and finals that I have yet studied for.</t>
-  </si>
-  <si>
-    <t>In my room</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Why not post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>People not see</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>People see</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>sms_date</t>
-  </si>
-  <si>
-    <t>sms_body</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>np1</t>
-  </si>
-  <si>
-    <t>np2</t>
-  </si>
-  <si>
-    <t>np3</t>
-  </si>
-  <si>
-    <t>nn1</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>long_description</t>
-  </si>
-  <si>
-    <t>post_date</t>
-  </si>
-  <si>
-    <t>Status update "need to ptfo already. This week neeeeeeeeds to end! "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">People dont need to know every aspect about my life. Even though people would probably "like" my status, I felt it was just unnecessary to post. </t>
-  </si>
-  <si>
-    <t>Nope</t>
-  </si>
-  <si>
-    <t>In my room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I went to sleep right after </t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am running on 2 hours of sleep, and felt really stressed with all the other things that I needed to still do. </t>
-  </si>
-  <si>
-    <t>Comment on friends wall "we are meant to be roommates. I come home to ptfo and there you are already ptfoed lols. Love you!"</t>
-  </si>
-  <si>
-    <t>too tired</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>my roommate</t>
-  </si>
-  <si>
-    <t>in my bed</t>
-  </si>
-  <si>
-    <t>sleeping</t>
-  </si>
-  <si>
-    <t>Wanted to pos on my roommates wall that we are so similar and meant to be!</t>
-  </si>
-  <si>
-    <t>"Pahahahaha Mel Gibson" to my friend emily's wall</t>
-  </si>
-  <si>
-    <t>Unnecessary</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>My friend Emily and 2 other friends that would also understand the context.</t>
-  </si>
-  <si>
-    <t>didnt feel like it</t>
-  </si>
-  <si>
-    <t>Studying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was an inside joke between my friend Emily and I. </t>
-  </si>
-  <si>
-    <t>I am stuck looking like a retard trying to unzip my stuck jacket. Status update</t>
-  </si>
-  <si>
-    <t>it was unneccesary</t>
-  </si>
-  <si>
-    <t>nope</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>at the library</t>
-  </si>
-  <si>
-    <t>just doing work</t>
-  </si>
-  <si>
-    <t>My jacket zipper got stuck and i tried so hard to unzip it</t>
-  </si>
-  <si>
-    <t>[Blank]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnecessary </t>
-  </si>
-  <si>
-    <t>My friends</t>
-  </si>
-  <si>
-    <t>at the restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eating </t>
-  </si>
-  <si>
-    <t>"Going to eat my #25 worth." There was a banquet tonight for all you can eat bbq for 25 dollars</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To show everyone a picture of me and my mentee at banquet </t>
-  </si>
-  <si>
-    <t>np</t>
-  </si>
-  <si>
-    <t>Mentee!</t>
-  </si>
-  <si>
-    <t>Programming can smd. Status update</t>
-  </si>
-  <si>
-    <t>Did not feel like it was necessary.</t>
-  </si>
-  <si>
-    <t>My parents</t>
   </si>
 </sst>
 </file>
@@ -958,71 +958,74 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1036,22 +1039,22 @@
         <v>39416.921550925923</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
         <v>39416.921550925923</v>
@@ -1060,13 +1063,13 @@
         <v>39417.113125000003</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="T2" s="1">
         <v>39416.713217592594</v>
@@ -1083,22 +1086,22 @@
         <v>39416.942754629628</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="O3" s="1">
         <v>39416.942766203705</v>
@@ -1107,13 +1110,13 @@
         <v>39419.135474537034</v>
       </c>
       <c r="Q3" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="T3" s="1">
         <v>39416.7344212963</v>
@@ -1130,22 +1133,22 @@
         <v>39417.115046296298</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="O4" s="1">
         <v>39417.115046296298</v>
@@ -1154,13 +1157,13 @@
         <v>39419.216643518521</v>
       </c>
       <c r="Q4" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="T4" s="1">
         <v>39416.906712962962</v>
@@ -1177,22 +1180,22 @@
         <v>39417.643912037034</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="O5" s="1">
         <v>39417.643912037034</v>
@@ -1201,13 +1204,13 @@
         <v>39418.381921296299</v>
       </c>
       <c r="Q5" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="T5" s="1">
         <v>39417.435578703706</v>
@@ -1224,22 +1227,22 @@
         <v>39418.208333333336</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="O6" s="1">
         <v>39419.134097222224</v>
@@ -1248,13 +1251,13 @@
         <v>39419.217476851853</v>
       </c>
       <c r="Q6" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="T6" s="1">
         <v>39418.208333333336</v>
@@ -1271,16 +1274,16 @@
         <v>39418.208333333336</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="O7" s="1">
         <v>39419.134305555555</v>
@@ -1289,13 +1292,13 @@
         <v>39419.134641203702</v>
       </c>
       <c r="Q7" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="S7" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="T7" s="1">
         <v>39418.208333333336</v>
@@ -1312,22 +1315,22 @@
         <v>39419.751157407409</v>
       </c>
       <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" t="s">
         <v>130</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>131</v>
-      </c>
-      <c r="F8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
       </c>
       <c r="O8" s="1">
         <v>39419.751168981478</v>
@@ -1336,13 +1339,13 @@
         <v>39420.063020833331</v>
       </c>
       <c r="Q8" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="T8" s="1">
         <v>39419.542824074073</v>
@@ -1359,22 +1362,22 @@
         <v>39420.862083333333</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O9" s="1">
         <v>39420.86209490741</v>
@@ -1383,13 +1386,13 @@
         <v>39421.106215277781</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T9" s="1">
         <v>39420.653749999998</v>
@@ -1406,22 +1409,22 @@
         <v>39421.992384259262</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O10" s="1">
         <v>39421.992384259262</v>
@@ -1430,13 +1433,13 @@
         <v>39422.071631944447</v>
       </c>
       <c r="Q10" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T10" s="1">
         <v>39421.784050925926</v>
@@ -1453,22 +1456,22 @@
         <v>39421.996076388888</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O11" s="1">
         <v>39421.996076388888</v>
@@ -1477,13 +1480,13 @@
         <v>39422.071030092593</v>
       </c>
       <c r="Q11" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T11" s="1">
         <v>39421.787743055553</v>
@@ -1500,22 +1503,22 @@
         <v>39422.767094907409</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O12" s="1">
         <v>39422.767094907409</v>
@@ -1524,13 +1527,13 @@
         <v>39423.050300925926</v>
       </c>
       <c r="Q12" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T12" s="1">
         <v>39422.558761574073</v>
@@ -1547,22 +1550,22 @@
         <v>39422.767245370371</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O13" s="1">
         <v>39422.767245370371</v>
@@ -1571,13 +1574,13 @@
         <v>39423.05945601852</v>
       </c>
       <c r="Q13" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T13" s="1">
         <v>39422.558912037035</v>
@@ -1617,31 +1620,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14" thickBot="1">
       <c r="A1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="78">
@@ -1652,25 +1655,25 @@
         <v>39416.921550925923</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="52">
@@ -1681,25 +1684,25 @@
         <v>39416.942754629628</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="91">
@@ -1710,25 +1713,25 @@
         <v>39417.115046296298</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26">
@@ -1739,25 +1742,25 @@
         <v>39417.643912037034</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="39">
@@ -1768,25 +1771,25 @@
         <v>39418.208333333336</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="130">
@@ -1797,25 +1800,25 @@
         <v>39419.751157407409</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="52">
@@ -1826,25 +1829,25 @@
         <v>39420.862083333333</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="I8" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="39">
@@ -1855,25 +1858,25 @@
         <v>39421.992384259262</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="65">
@@ -1884,25 +1887,25 @@
         <v>39421.996076388888</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="H10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="26">
@@ -1913,25 +1916,25 @@
         <v>39422.767094907409</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="52">
@@ -1942,32 +1945,31 @@
         <v>39422.767245370371</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1981,7 +1983,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1999,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -2007,23 +2009,23 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B4" s="9">
         <v>39423</v>
@@ -2031,34 +2033,34 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1"/>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2066,263 +2068,263 @@
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" ht="117">
       <c r="A15" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="26">
       <c r="A16" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="39">
       <c r="A17" s="5" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26">
       <c r="A18" s="5" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26">
       <c r="A19" s="5" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="C20">
         <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C21">
         <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26">
       <c r="A22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26">
       <c r="A26" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2336,57 +2338,56 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="52">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="39">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="26">
       <c r="A33" s="4" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="26">
       <c r="A34" s="4" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="26">
       <c r="A35" s="4" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="26">
       <c r="A36" s="4" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="52">
       <c r="A37" s="4" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
